--- a/CapStatement/AnsBank.xlsx
+++ b/CapStatement/AnsBank.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\Python\MyNotebooks\CapStatement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D308B1EB-9E19-4C1C-84AD-F0A56E60FDC8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78815DC-D31F-4A21-B3EF-4F06ADC2C591}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="23325" windowHeight="13980" activeTab="4" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
+    <workbookView xWindow="-26730" yWindow="2475" windowWidth="25680" windowHeight="10665" activeTab="6" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
     <sheet name="profiles" sheetId="2" r:id="rId2"/>
     <sheet name="all profiles" sheetId="6" r:id="rId3"/>
     <sheet name="resources" sheetId="3" r:id="rId4"/>
-    <sheet name="interactions" sheetId="5" r:id="rId5"/>
-    <sheet name="sps" sheetId="4" r:id="rId6"/>
+    <sheet name="ops" sheetId="7" r:id="rId5"/>
+    <sheet name="interactions" sheetId="5" r:id="rId6"/>
+    <sheet name="sps" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="109">
   <si>
     <t>Value</t>
   </si>
@@ -344,6 +345,31 @@
   </si>
   <si>
     <t>conf_QuestionnaireResponse</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>conf</t>
+  </si>
+  <si>
+    <t>-  A server *SHALL* be capable of supporting  the[ Argonaut Questionnaire Profile](http://fhir.org/guides/argonaut-questionnaire/StructureDefinition/argo-questionnaire) as a contained resource with the Argonaut Adaptive QuestionnaireResponse Profile.
+-  A server *SHALL* be capable of supporting  the[ Argonaut Questionnaire ValueSet Profile](http://fhir.org/guides/argonaut-questionnaire/StructureDefinition/argo-questionnaire-valueset) as a contained resource with the Argonaut Questionnaire Profile.</t>
+  </si>
+  <si>
+    <t>combo_pairs</t>
+  </si>
+  <si>
+    <t>title,publisher,version,context-type-value</t>
+  </si>
+  <si>
+    <t>context-type,version</t>
+  </si>
+  <si>
+    <t>author,source,context</t>
+  </si>
+  <si>
+    <t>questionnaire,patient,context,author,source</t>
   </si>
 </sst>
 </file>
@@ -780,7 +806,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -984,10 +1010,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ACB4CFA-AAEF-4FC6-A49B-107CEE80A317}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1027,40 +1053,26 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" t="s">
         <v>65</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="H2" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1071,11 +1083,37 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D6548C-6DDB-40F6-A9E4-9B3292B8B3BA}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E2E280-092F-4777-8984-8212A8DAB750}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1176,12 +1214,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7399C2ED-EDEB-47AB-8C1E-1290512B1D2F}">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1190,9 +1228,10 @@
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
     <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="45.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -1241,8 +1280,11 @@
       <c r="P1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -1292,7 +1334,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -1343,7 +1385,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -1393,8 +1435,11 @@
       <c r="P4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -1444,8 +1489,11 @@
       <c r="P5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -1495,8 +1543,11 @@
       <c r="P6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -1547,7 +1598,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -1598,7 +1649,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -1649,7 +1700,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -1700,7 +1751,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -1750,8 +1801,11 @@
       <c r="P11" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -1802,7 +1856,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -1852,8 +1906,11 @@
       <c r="P13" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -1904,7 +1961,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -1955,7 +2012,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>83</v>
       </c>

--- a/CapStatement/AnsBank.xlsx
+++ b/CapStatement/AnsBank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\Python\MyNotebooks\CapStatement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78815DC-D31F-4A21-B3EF-4F06ADC2C591}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704ACB66-E3B2-40DA-A4D2-C76AA71CAFF9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26730" yWindow="2475" windowWidth="25680" windowHeight="10665" activeTab="6" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
+    <workbookView xWindow="-25740" yWindow="2025" windowWidth="25680" windowHeight="10665" activeTab="4" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="110">
   <si>
     <t>Value</t>
   </si>
@@ -363,13 +363,16 @@
     <t>title,publisher,version,context-type-value</t>
   </si>
   <si>
-    <t>context-type,version</t>
-  </si>
-  <si>
     <t>author,source,context</t>
   </si>
   <si>
     <t>questionnaire,patient,context,author,source</t>
+  </si>
+  <si>
+    <t>context-type-value,version</t>
+  </si>
+  <si>
+    <t>definition</t>
   </si>
 </sst>
 </file>
@@ -1084,22 +1087,25 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D6548C-6DDB-40F6-A9E4-9B3292B8B3BA}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E8:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>101</v>
       </c>
       <c r="B1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" t="s">
         <v>80</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1218,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7399C2ED-EDEB-47AB-8C1E-1290512B1D2F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1544,7 +1550,7 @@
         <v>42</v>
       </c>
       <c r="Q6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -1802,7 +1808,7 @@
         <v>42</v>
       </c>
       <c r="Q11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -1907,7 +1913,7 @@
         <v>42</v>
       </c>
       <c r="Q13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">

--- a/CapStatement/AnsBank.xlsx
+++ b/CapStatement/AnsBank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\Python\MyNotebooks\CapStatement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704ACB66-E3B2-40DA-A4D2-C76AA71CAFF9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA3BCB7-86EE-4750-99C2-558DB6255482}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25740" yWindow="2025" windowWidth="25680" windowHeight="10665" activeTab="4" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
+    <workbookView xWindow="-28920" yWindow="-615" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
@@ -734,7 +734,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1015,8 +1015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ACB4CFA-AAEF-4FC6-A49B-107CEE80A317}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1089,8 +1089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D6548C-6DDB-40F6-A9E4-9B3292B8B3BA}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E8:E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1225,7 +1225,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
